--- a/medicine/Handicap/Service_d'aide_au_maintien_dans_l'emploi_des_travailleurs_handicapés/Service_d'aide_au_maintien_dans_l'emploi_des_travailleurs_handicapés.xlsx
+++ b/medicine/Handicap/Service_d'aide_au_maintien_dans_l'emploi_des_travailleurs_handicapés/Service_d'aide_au_maintien_dans_l'emploi_des_travailleurs_handicapés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Service_d%27aide_au_maintien_dans_l%27emploi_des_travailleurs_handicap%C3%A9s</t>
+          <t>Service_d'aide_au_maintien_dans_l'emploi_des_travailleurs_handicapés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, un Service d'aide au maintien dans l'emploi des travailleurs handicapés (SAMETH) est un service qui intervient en conseil auprès des entreprises qui ont besoin d'évaluer les options permettant de conserver leur salarié en situation de handicap ou dont l'état de santé s'aggrave. Le SAMETH peut également conseiller un salarié dont la reprise de travail est envisagée et pour qui le maintien à son poste, dans son entreprise, serait réaliste. 
 C'est un dispositif national financé par l'AGEFIPH qui peut attribuer des aides pour éviter le licenciement d'un salarié devenu inapte.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Service_d%27aide_au_maintien_dans_l%27emploi_des_travailleurs_handicap%C3%A9s</t>
+          <t>Service_d'aide_au_maintien_dans_l'emploi_des_travailleurs_handicapés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Bénéficiaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon l'art. L. 5213-1 du code du travail, « Est considérée comme travailleur handicapé toute personne dont les possibilités d'obtenir ou de conserver un emploi sont effectivement réduites par suite de l'altération d'une ou plusieurs fonctions physique, sensorielle, mentale ou psychique ».
 Les salariés handicapés reconnus par la commission des droits et de l'autonomie des personnes
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Service_d%27aide_au_maintien_dans_l%27emploi_des_travailleurs_handicap%C3%A9s</t>
+          <t>Service_d'aide_au_maintien_dans_l'emploi_des_travailleurs_handicapés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Signalement au SAMETH</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peuvent saisir un SAMETH :
 les salariés concernés
